--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>列名</t>
   </si>
@@ -55,13 +55,88 @@
     <t>主键</t>
   </si>
   <si>
-    <t>user_name</t>
+    <t>company</t>
+  </si>
+  <si>
+    <t>公司名称</t>
+  </si>
+  <si>
+    <t>var_char(255)</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>通讯地址</t>
+  </si>
+  <si>
+    <t>contacts</t>
+  </si>
+  <si>
+    <t>联系人</t>
+  </si>
+  <si>
+    <t>var_char（30）</t>
+  </si>
+  <si>
+    <t>qq</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>var_char（11）</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>营业执照号码</t>
+  </si>
+  <si>
+    <t>char(15)</t>
+  </si>
+  <si>
+    <t>company_address</t>
+  </si>
+  <si>
+    <t>企业地址</t>
+  </si>
+  <si>
+    <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>identity</t>
+  </si>
+  <si>
+    <t>联系人身份证号码</t>
+  </si>
+  <si>
+    <t>char(18)</t>
+  </si>
+  <si>
+    <t>t_user 用户表</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>用户名</t>
   </si>
   <si>
-    <t>var_char（30）</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>tinyint(1)</t>
+  </si>
+  <si>
+    <t>0：管理员，1：代理商，2：普通用户</t>
   </si>
   <si>
     <t>password</t>
@@ -88,7 +163,16 @@
     <t>电子邮件</t>
   </si>
   <si>
-    <t>var_char(255)</t>
+    <t>var_char(20)</t>
+  </si>
+  <si>
+    <t>isAudit</t>
+  </si>
+  <si>
+    <t>是否审核</t>
+  </si>
+  <si>
+    <t>1：审核，2未审核</t>
   </si>
   <si>
     <t>status</t>
@@ -97,109 +181,46 @@
     <t>状态</t>
   </si>
   <si>
-    <t>tinyint(1)</t>
-  </si>
-  <si>
     <t>1：正常，2停用</t>
   </si>
   <si>
-    <t>is_audit</t>
-  </si>
-  <si>
-    <t>是否审核</t>
-  </si>
-  <si>
-    <t>1：审核，2未审核</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>1:普通用户,2代理商</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>公司名称</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>通讯地址</t>
-  </si>
-  <si>
-    <t>contacts</t>
-  </si>
-  <si>
-    <t>联系人</t>
-  </si>
-  <si>
-    <t>qq</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>var_char（11）</t>
-  </si>
-  <si>
-    <t>create_time</t>
+    <t>createTime</t>
   </si>
   <si>
     <t>注册时间</t>
   </si>
   <si>
-    <t>last_ip</t>
+    <t>int(16)</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>折扣率</t>
+  </si>
+  <si>
+    <t>DECIMAL(size,2)</t>
+  </si>
+  <si>
+    <t>lastIp</t>
   </si>
   <si>
     <t>最后一次登录IP</t>
   </si>
   <si>
-    <t>last_time</t>
+    <t>lastTime</t>
   </si>
   <si>
     <t>最后一次登录时间</t>
   </si>
   <si>
-    <t>license</t>
-  </si>
-  <si>
-    <t>营业执照号码</t>
-  </si>
-  <si>
-    <t>char(15)</t>
-  </si>
-  <si>
-    <t>company_address</t>
-  </si>
-  <si>
-    <t>企业地址</t>
-  </si>
-  <si>
-    <t>varchar(255)</t>
-  </si>
-  <si>
-    <t>identity</t>
-  </si>
-  <si>
-    <t>联系人身份证号码</t>
-  </si>
-  <si>
-    <t>char(18)</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>折扣率</t>
-  </si>
-  <si>
-    <t>DECIMAL(size,2)</t>
+    <t>wxId</t>
+  </si>
+  <si>
+    <t>微信id</t>
+  </si>
+  <si>
+    <t>var_char(100)</t>
   </si>
 </sst>
 </file>
@@ -207,10 +228,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -234,6 +255,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -247,15 +275,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +306,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +314,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,16 +344,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +384,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -332,46 +392,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -392,61 +413,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,121 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,6 +622,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -618,9 +657,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,35 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -684,17 +711,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,10 +727,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,133 +739,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1175,10 +1196,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1186,6 +1209,7 @@
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="26.375" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="31.625" customWidth="1"/>
     <col min="7" max="7" width="6.875" customWidth="1"/>
   </cols>
@@ -1235,7 +1259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1244,9 +1268,6 @@
       </c>
       <c r="C4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1257,7 +1278,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1265,220 +1286,253 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>39</v>
-      </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>50</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
         <v>59</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>61</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
